--- a/MyMojioWebsite/src/com/mojio/xls/ReplayEvent.xlsx
+++ b/MyMojioWebsite/src/com/mojio/xls/ReplayEvent.xlsx
@@ -12,14 +12,21 @@
     <sheet name="Test Steps" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="SignIn" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="NavigateReplayEvents" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Resend_Verification_Email" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="ReplayEvent" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="FileNotAttached" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="TimeFactorNotPresent" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="TimeShiftNotPresent" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="AllFieldBlank" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="InvalidTimeFactor" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="InvalidTimeShift" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="InvalidTimeFactorTimeShift" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="113">
   <si>
     <t>TCID</t>
   </si>
@@ -42,6 +49,27 @@
     <t>ReplayEvent</t>
   </si>
   <si>
+    <t>FileNotAttached</t>
+  </si>
+  <si>
+    <t>TimeFactorNotPresent</t>
+  </si>
+  <si>
+    <t>TimeShiftNotPresent</t>
+  </si>
+  <si>
+    <t>AllFieldBlank</t>
+  </si>
+  <si>
+    <t>InvalidTimeFactor</t>
+  </si>
+  <si>
+    <t>InvalidTimeShift</t>
+  </si>
+  <si>
+    <t>InvalidTimeFactorTimeShift</t>
+  </si>
+  <si>
     <t>TSID</t>
   </si>
   <si>
@@ -183,25 +211,94 @@
     <t>col|Replay_Events_Page</t>
   </si>
   <si>
-    <t>Browse the File</t>
-  </si>
-  <si>
-    <t>browseFile</t>
+    <t>Clear the Time Factor Field</t>
+  </si>
+  <si>
+    <t>clearFieldById</t>
+  </si>
+  <si>
+    <t>timeFactorReplayEventId</t>
+  </si>
+  <si>
+    <t>Clear the Time Shift Field</t>
+  </si>
+  <si>
+    <t>timeShiftReplayEventId</t>
+  </si>
+  <si>
+    <t>TS008</t>
+  </si>
+  <si>
+    <t>Write the Time Factor</t>
+  </si>
+  <si>
+    <t>col|Time_Factor</t>
+  </si>
+  <si>
+    <t>TS009</t>
+  </si>
+  <si>
+    <t>Write the Time Shift</t>
+  </si>
+  <si>
+    <t>col|Time_Shift</t>
+  </si>
+  <si>
+    <t>TS010</t>
+  </si>
+  <si>
+    <t>Browse the Exported File</t>
+  </si>
+  <si>
+    <t>browseEventFile</t>
   </si>
   <si>
     <t>eventBrowseFileId</t>
   </si>
   <si>
+    <t>TS011</t>
+  </si>
+  <si>
+    <t>Click on replay</t>
+  </si>
+  <si>
     <t>eventReplayId</t>
   </si>
   <si>
-    <t>TS008</t>
+    <t>TS012</t>
+  </si>
+  <si>
+    <t>Verify the Events are replayed</t>
   </si>
   <si>
     <t>col|Events_Replayed</t>
   </si>
   <si>
-    <t>TS009</t>
+    <t>Verify the No Replay Error</t>
+  </si>
+  <si>
+    <t>col|Replay_Error</t>
+  </si>
+  <si>
+    <t>Write the Invalid Time Factor</t>
+  </si>
+  <si>
+    <t>col|Invalid_Time_Factor</t>
+  </si>
+  <si>
+    <t>Write the Invalid Time Shift</t>
+  </si>
+  <si>
+    <t>col|Invalid_Time_Shift</t>
+  </si>
+  <si>
+    <t>TS013</t>
+  </si>
+  <si>
+    <t>Close the Browser</t>
+  </si>
+  <si>
+    <t>closeBroswer</t>
   </si>
   <si>
     <t>Sign_In_Page</t>
@@ -237,19 +334,45 @@
     <t>Events_Replayed</t>
   </si>
   <si>
+    <t>Time_Factor</t>
+  </si>
+  <si>
+    <t>Time_Shift</t>
+  </si>
+  <si>
     <t>The events have been replayed successfully</t>
   </si>
   <si>
-    <t>Result2</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Replay_Error</t>
+  </si>
+  <si>
+    <t>Could not replay the events</t>
+  </si>
+  <si>
+    <t>Invalid_Time_Factor</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Invalid_Time_Shift</t>
+  </si>
+  <si>
+    <t>def</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="GENERAL"/>
+  <numFmts count="1">
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -275,7 +398,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,18 +409,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0084D1"/>
-        <bgColor rgb="FF008080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF950E"/>
-        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
     <fill>
@@ -319,13 +430,15 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill>
-        <fgColor indexed="55"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0084D1"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor rgb="FFFF950E"/>
+        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
   </fills>
@@ -370,7 +483,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -387,7 +500,15 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -395,7 +516,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="165" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -403,11 +524,15 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="7" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="7" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -415,7 +540,10 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="6" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -493,18 +621,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A3" activeCellId="0" pane="topLeft" sqref="A3:A4"/>
+      <selection activeCell="D9" activeCellId="0" pane="topLeft" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="30.280612244898" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="25.4234693877551" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="25.2908163265306" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -528,7 +656,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3"/>
@@ -537,11 +665,74 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -556,29 +747,201 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C7" activeCellId="0" pane="topLeft" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.8826530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
+      <c r="A2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C4" activeCellId="0" pane="topLeft" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
+      <c r="A2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C1" activeCellId="0" pane="topLeft" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
+      <c r="A2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:23"/>
+  <dimension ref="1:105"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A14" activeCellId="1" pane="topLeft" sqref="A3:A4 A14"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A73" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A104" activeCellId="0" pane="topLeft" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="31.8571428571429" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="7.0" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="34.1428571428571" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="24.7295918367347" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="38.4285714285714" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="34.1428571428571" collapsed="true"/>
-    <col min="7" max="7" hidden="false" style="0" width="13.8418367346939" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" hidden="false" style="0" width="7.51171875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" hidden="false" style="0" width="7.51171875" collapsed="true"/>
-    <col min="10" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.1428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.7295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.4285714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.1428571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.8418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.51530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -586,28 +949,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s" s="11">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
@@ -615,21 +975,21 @@
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
@@ -637,21 +997,21 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
@@ -659,21 +1019,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
@@ -681,23 +1041,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
@@ -705,23 +1065,23 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
@@ -729,21 +1089,21 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
@@ -751,348 +1111,2068 @@
         <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="B9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" t="s">
-        <v>17</v>
+      <c r="C9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11" s="9">
-      <c r="A11" s="4" t="s">
+      <c r="B10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11" s="10">
+      <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
+      <c r="B11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AME11" s="0"/>
+      <c r="AMF11" s="0"/>
+      <c r="AMG11" s="0"/>
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12" s="9">
-      <c r="A12" s="4" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12" s="10">
+      <c r="A12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
+      <c r="B12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AME12" s="0"/>
+      <c r="AMF12" s="0"/>
+      <c r="AMG12" s="0"/>
       <c r="AMH12" s="0"/>
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13" s="9">
-      <c r="A13" s="4" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13" s="10">
+      <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
+      <c r="B13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AME13" s="0"/>
+      <c r="AMF13" s="0"/>
+      <c r="AMG13" s="0"/>
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
+      <c r="A15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
+      <c r="A16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
+      <c r="A17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
+      <c r="A18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
+      <c r="A19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
+      <c r="A20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
+      <c r="A21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
+      <c r="A22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="E22" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
+      <c r="A23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
+      <c r="A24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="25">
+      <c r="A25" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="26">
+      <c r="A26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
+      <c r="A27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="28">
+      <c r="A28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="29">
+      <c r="A29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
+      <c r="D29" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="E29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="30">
+      <c r="A30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="31">
+      <c r="A31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="32">
+      <c r="A32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="33">
+      <c r="A33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="34">
+      <c r="A34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="35">
+      <c r="A35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="36">
+      <c r="A36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="37">
+      <c r="A37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="38">
+      <c r="A38" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="39">
+      <c r="A39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="40">
+      <c r="A40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="41">
+      <c r="A41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="42">
+      <c r="A42" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="43">
+      <c r="A43" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="44">
+      <c r="A44" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="45">
+      <c r="A45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" s="9"/>
+      <c r="H45" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="46">
+      <c r="A46" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="47">
+      <c r="A47" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="48">
+      <c r="A48" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="49">
+      <c r="A49" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="11"/>
+      <c r="H49" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="50">
+      <c r="A50" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="51">
+      <c r="A51" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="52">
+      <c r="A52" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="53">
+      <c r="A53" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" s="11"/>
+      <c r="H53" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="54">
+      <c r="A54" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="55">
+      <c r="A55" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="56">
+      <c r="A56" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" s="11"/>
+      <c r="H56" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="57">
+      <c r="A57" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F57" s="12"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="58">
+      <c r="A58" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" s="12"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="59">
+      <c r="A59" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="60">
+      <c r="A60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="61">
+      <c r="A61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="62">
+      <c r="A62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="63">
+      <c r="A63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="64">
+      <c r="A64" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="65">
+      <c r="A65" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="66">
+      <c r="A66" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="67">
+      <c r="A67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F67" s="13"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="68">
+      <c r="A68" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="69">
+      <c r="A69" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69" s="11"/>
+      <c r="H69" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="70">
+      <c r="A70" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F70" s="11"/>
+      <c r="G70" s="12"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="71">
+      <c r="A71" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F71" s="11"/>
+      <c r="G71" s="12"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="72">
+      <c r="A72" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F72" s="11"/>
+      <c r="G72" s="12"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="73">
+      <c r="A73" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G73" s="12"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="74">
+      <c r="A74" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F74" s="11"/>
+      <c r="G74" s="12"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="75">
+      <c r="A75" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F75" s="11"/>
+      <c r="G75" s="12"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="76">
+      <c r="A76" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G76" s="12"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="77">
+      <c r="A77" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G77" s="12"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="78">
+      <c r="A78" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="79">
+      <c r="A79" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="80">
+      <c r="A80" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="81">
+      <c r="A81" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G81" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="82">
+      <c r="A82" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F82" s="9"/>
+      <c r="G82" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="83">
+      <c r="A83" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F83" s="9"/>
+      <c r="G83" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="84">
+      <c r="A84" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F84" s="9"/>
+      <c r="G84" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="85">
+      <c r="A85" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G85" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="86">
+      <c r="A86" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F86" s="9"/>
+      <c r="G86" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="87">
+      <c r="A87" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F87" s="9"/>
+      <c r="G87" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="88">
+      <c r="A88" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G88" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="89">
+      <c r="A89" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G89" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="90">
+      <c r="A90" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="91">
+      <c r="A91" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="92">
+      <c r="A92" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="93">
+      <c r="A93" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="B93" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="I15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="C93" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G93" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="94">
+      <c r="A94" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F94" s="7"/>
+      <c r="G94" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="95">
+      <c r="A95" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F95" s="7"/>
+      <c r="G95" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="96">
+      <c r="A96" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F96" s="7"/>
+      <c r="G96" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="97">
+      <c r="A97" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G97" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="98">
+      <c r="A98" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C98" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F98" s="7"/>
+      <c r="G98" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="99">
+      <c r="A99" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="I17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="A18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="I18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="A19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="C99" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F99" s="7"/>
+      <c r="G99" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="100">
+      <c r="A100" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G100" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="101">
+      <c r="A101" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G101" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="102">
+      <c r="A102" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="103">
+      <c r="A103" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="104">
+      <c r="A104" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="I19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="A20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="I20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
-      <c r="A21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="I21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
-      <c r="A22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="I22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
-      <c r="A23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="105">
+      <c r="A105" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1113,31 +3193,31 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D2" activeCellId="1" pane="topLeft" sqref="A3:A4 D2"/>
+      <selection activeCell="D2" activeCellId="0" pane="topLeft" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="27.4234693877551" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="27.8520408163265" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="27.2857142857143" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="27.0" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="18.5765306122449" collapsed="true"/>
-    <col min="6" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>2</v>
@@ -1145,16 +3225,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>4</v>
@@ -1179,27 +3259,27 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A3:A4 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="36.9948979591837" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="18.8520408163265" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="9" t="s">
-        <v>70</v>
+      <c r="A2" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -1221,39 +3301,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B2" activeCellId="1" pane="topLeft" sqref="A3:A4 B2"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="36.5714285714286" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="52.015306122449" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="18.0" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.4744897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="18"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="9" t="s">
-        <v>70</v>
+      <c r="A2" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1266,4 +3358,222 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0867346938775"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2602040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
+      <c r="A2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
+      <c r="A2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
+      <c r="A2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C3" activeCellId="0" pane="topLeft" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.1122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
+      <c r="A2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>